--- a/Output/April/productivity_agent/productivity_agent_2022-04-03.xlsx
+++ b/Output/April/productivity_agent/productivity_agent_2022-04-03.xlsx
@@ -25981,7 +25981,7 @@
         <v>0.6359102244389028</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K79">
         <v>0</v>
